--- a/Master_testCases_SATHYA.xlsx
+++ b/Master_testCases_SATHYA.xlsx
@@ -8,33 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Sathya_e-com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91921B2E-50EA-4C40-AF20-0E66C36FC0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7053893-AC37-4117-B9BF-5CA70CCADCA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Air Conditioners" sheetId="10" r:id="rId2"/>
-    <sheet name="Refrigerator" sheetId="2" r:id="rId3"/>
-    <sheet name="Washing Machine" sheetId="9" r:id="rId4"/>
-    <sheet name="Water Purifier" sheetId="14" r:id="rId5"/>
-    <sheet name="Kitchen Appliances" sheetId="15" r:id="rId6"/>
-    <sheet name="Stabilizer" sheetId="13" r:id="rId7"/>
-    <sheet name="LED_kavin" sheetId="8" r:id="rId8"/>
-    <sheet name="Home theature" sheetId="11" r:id="rId9"/>
-    <sheet name="CCTV" sheetId="12" r:id="rId10"/>
+    <sheet name="Index" sheetId="16" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId2"/>
+    <sheet name="Air Conditioners" sheetId="10" r:id="rId3"/>
+    <sheet name="Refrigerator" sheetId="2" r:id="rId4"/>
+    <sheet name="Washing Machine" sheetId="9" r:id="rId5"/>
+    <sheet name="Water Purifier" sheetId="14" r:id="rId6"/>
+    <sheet name="Kitchen Appliances" sheetId="15" r:id="rId7"/>
+    <sheet name="Stabilizer" sheetId="13" r:id="rId8"/>
+    <sheet name="LED_kavin" sheetId="8" r:id="rId9"/>
+    <sheet name="Home theature" sheetId="11" r:id="rId10"/>
+    <sheet name="CCTV" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="770">
   <si>
     <t>Scope:</t>
   </si>
@@ -5105,16 +5111,92 @@
   <si>
     <t>Test team</t>
   </si>
+  <si>
+    <t>Table of Contents</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Done By</t>
+  </si>
+  <si>
+    <t>Number of Testcase</t>
+  </si>
+  <si>
+    <t>Number of Test Cases</t>
+  </si>
+  <si>
+    <t>Version Table</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Test Comments</t>
+  </si>
+  <si>
+    <t>Modified By</t>
+  </si>
+  <si>
+    <t>Initial draft</t>
+  </si>
+  <si>
+    <t>Sathya E-Commerce Application</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Siva Subramaniyan S</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Water Purifier</t>
+  </si>
+  <si>
+    <t>Kitchen Appliances</t>
+  </si>
+  <si>
+    <t>Stabilizer</t>
+  </si>
+  <si>
+    <t>LED TV</t>
+  </si>
+  <si>
+    <t>Home theature</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Mahendran R</t>
+  </si>
+  <si>
+    <t>Sathish N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mohamedbasha S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5295,6 +5377,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5377,6 +5465,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5571,6 +5665,66 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color indexed="56"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -5712,7 +5866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -5908,13 +6062,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6182,29 +6407,29 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6240,22 +6465,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6267,7 +6492,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6282,13 +6507,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -6311,75 +6536,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="49" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6395,44 +6620,44 @@
     <xf numFmtId="165" fontId="17" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="48" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="50" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="49" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="47" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="49" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6444,96 +6669,188 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="62" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="66" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="76" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="76" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="76" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="76" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="79" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6541,53 +6858,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="30"/>
-          <bgColor indexed="48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="21"/>
-          <bgColor indexed="57"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -6943,478 +7214,542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9252F57-8E50-4A28-A53A-3D577E3F20B8}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="220" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="220" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="220" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="220" customWidth="1"/>
-    <col min="5" max="5" width="39" style="220" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="220" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="220" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="220"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="218" t="s">
-        <v>641</v>
-      </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="217" t="s">
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="242" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="243" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
+    </row>
+    <row r="3" spans="1:5" s="248" customFormat="1" ht="15.6">
+      <c r="A3" s="246" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="246" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="246" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>749</v>
+      </c>
+      <c r="E3" s="247"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="249">
         <v>1</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="B4" s="250" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="249" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4" s="249">
+        <v>11</v>
+      </c>
+      <c r="E4" s="245"/>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="249">
         <v>2</v>
       </c>
-      <c r="B3" s="218" t="s">
-        <v>744</v>
-      </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="217" t="s">
+      <c r="B5" s="250" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="249" t="s">
+        <v>759</v>
+      </c>
+      <c r="D5" s="249">
+        <v>21</v>
+      </c>
+      <c r="E5" s="245"/>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="249">
+        <v>3</v>
+      </c>
+      <c r="B6" s="251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="249" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="249">
+        <v>64</v>
+      </c>
+      <c r="E6" s="245"/>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="249">
         <v>4</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="B7" s="249" t="s">
+        <v>760</v>
+      </c>
+      <c r="C7" s="249" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="249">
+        <v>11</v>
+      </c>
+      <c r="E7" s="245"/>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="249">
         <v>5</v>
       </c>
-      <c r="B5" s="241" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="B8" s="249" t="s">
+        <v>761</v>
+      </c>
+      <c r="C8" s="249" t="s">
+        <v>769</v>
+      </c>
+      <c r="D8" s="249">
+        <v>15</v>
+      </c>
+      <c r="E8" s="245"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="249">
         <v>6</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="224"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="226" t="s">
+      <c r="B9" s="249" t="s">
+        <v>762</v>
+      </c>
+      <c r="C9" s="249" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="249">
+        <v>8</v>
+      </c>
+      <c r="E9" s="245"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="249">
         <v>7</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B10" s="249" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" s="249" t="s">
+        <v>767</v>
+      </c>
+      <c r="D10" s="249">
+        <v>31</v>
+      </c>
+      <c r="E10" s="245"/>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="249">
         <v>8</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="B11" s="249" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" s="249" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="249">
+        <v>8</v>
+      </c>
+      <c r="E11" s="245"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="249">
         <v>9</v>
       </c>
-      <c r="D8" s="226" t="s">
+      <c r="B12" s="249" t="s">
+        <v>765</v>
+      </c>
+      <c r="C12" s="249" t="s">
+        <v>768</v>
+      </c>
+      <c r="D12" s="249">
+        <v>7</v>
+      </c>
+      <c r="E12" s="245"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="249">
         <v>10</v>
       </c>
-      <c r="E8" s="226" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="226" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="226" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="226" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="226" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="227" t="s">
+      <c r="B13" s="249" t="s">
+        <v>766</v>
+      </c>
+      <c r="C13" s="249" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="249">
         <v>18</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="229"/>
-    </row>
-    <row r="10" spans="1:9" ht="221.25" customHeight="1">
-      <c r="A10" s="230" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="233" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-    </row>
-    <row r="11" spans="1:9" ht="77.25" customHeight="1">
-      <c r="A11" s="230" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="233" t="s">
-        <v>727</v>
-      </c>
-      <c r="E11" s="234" t="s">
-        <v>728</v>
-      </c>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-    </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1">
-      <c r="A12" s="230" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="233" t="s">
-        <v>729</v>
-      </c>
-      <c r="E12" s="233" t="s">
-        <v>730</v>
-      </c>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-    </row>
-    <row r="13" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A13" s="230" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233" t="s">
-        <v>731</v>
-      </c>
-      <c r="E13" s="233" t="s">
-        <v>732</v>
-      </c>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="230" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="233" t="s">
-        <v>733</v>
-      </c>
-      <c r="E14" s="233" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="230" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="234" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A16" s="230"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A17" s="227" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="229"/>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" customHeight="1">
-      <c r="A18" s="230" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="231"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="234" t="s">
-        <v>734</v>
-      </c>
-      <c r="E18" s="233" t="s">
-        <v>735</v>
-      </c>
-      <c r="F18" s="231"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-    </row>
-    <row r="19" spans="1:9" ht="186.75" customHeight="1">
-      <c r="A19" s="230" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="233" t="s">
-        <v>736</v>
-      </c>
-      <c r="E19" s="233" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-    </row>
-    <row r="20" spans="1:9" s="238" customFormat="1" ht="85.8" customHeight="1">
-      <c r="A20" s="235" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237" t="s">
-        <v>737</v>
-      </c>
-      <c r="E20" s="237" t="s">
-        <v>738</v>
-      </c>
-      <c r="F20" s="236"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="236"/>
-    </row>
-    <row r="21" spans="1:9" s="238" customFormat="1" ht="85.8" customHeight="1">
-      <c r="A21" s="235" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="236"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237" t="s">
-        <v>739</v>
-      </c>
-      <c r="E21" s="237" t="s">
-        <v>740</v>
-      </c>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="236"/>
-    </row>
-    <row r="22" spans="1:9" s="238" customFormat="1" ht="133.19999999999999" customHeight="1">
-      <c r="A22" s="235" t="s">
-        <v>741</v>
-      </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237" t="s">
-        <v>742</v>
-      </c>
-      <c r="E22" s="237" t="s">
-        <v>743</v>
-      </c>
-      <c r="F22" s="236"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="236"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A23" s="230"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A25" s="240" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="240" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
+      <c r="E13" s="245"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.2">
+      <c r="A14" s="252"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="253" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" s="254">
+        <f>SUM(D4:D13)</f>
+        <v>194</v>
+      </c>
+      <c r="E14" s="255"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="256"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="255"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="256"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="255"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.2">
+      <c r="A17" s="258" t="s">
+        <v>751</v>
+      </c>
+      <c r="B17" s="258"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="255"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.2" thickBot="1">
+      <c r="A18" s="260" t="s">
+        <v>752</v>
+      </c>
+      <c r="B18" s="260" t="s">
+        <v>753</v>
+      </c>
+      <c r="C18" s="260" t="s">
+        <v>754</v>
+      </c>
+      <c r="D18" s="261" t="s">
+        <v>755</v>
+      </c>
+      <c r="E18" s="262"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" thickTop="1">
+      <c r="A19" s="263">
+        <v>1</v>
+      </c>
+      <c r="B19" s="264">
+        <v>43588</v>
+      </c>
+      <c r="C19" s="265" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" s="266"/>
+      <c r="E19" s="267"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.2">
+      <c r="A20" s="263"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="267"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.2">
+      <c r="A21" s="263"/>
+      <c r="B21" s="263"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="267"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.2">
+      <c r="A22" s="263"/>
+      <c r="B22" s="263"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="267"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.2">
+      <c r="A23" s="269"/>
+      <c r="B23" s="263"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="268"/>
+      <c r="E23" s="267"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="270"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="267"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="270"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="267"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="270"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="267"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2518BFF-C2EE-46DA-83D5-E91A3AD48E39}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="46.8">
+      <c r="A7" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="171.6">
+      <c r="A9" s="104" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="187.2">
+      <c r="A10" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="218.4">
+      <c r="A11" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="156">
+      <c r="A12" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="202.8">
+      <c r="A13" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="124.8">
+      <c r="A14" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="D14" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="109.2">
+      <c r="A15" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="109.2">
+      <c r="A16" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104EEB88-46AD-4F00-A24D-1CA3CCDCBCAB}">
   <dimension ref="A1:HY65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22455,11 +22790,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="220" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="220" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="220" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="220" customWidth="1"/>
+    <col min="5" max="5" width="39" style="220" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="220" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="220" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="220"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A1" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="218" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="221" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A3" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="218" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A4" s="217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="241" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="222"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A7" s="224"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="226" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="226" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A9" s="227" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="229"/>
+    </row>
+    <row r="10" spans="1:9" ht="221.25" customHeight="1">
+      <c r="A10" s="230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+    </row>
+    <row r="11" spans="1:9" ht="77.25" customHeight="1">
+      <c r="A11" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="233" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="234" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+    </row>
+    <row r="12" spans="1:9" ht="75" customHeight="1">
+      <c r="A12" s="230" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="231"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="233" t="s">
+        <v>729</v>
+      </c>
+      <c r="E12" s="233" t="s">
+        <v>730</v>
+      </c>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+    </row>
+    <row r="13" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A13" s="230" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="231"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="233" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="233" t="s">
+        <v>732</v>
+      </c>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="231"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="230" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="233" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" s="230" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="231"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="233" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="234" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A16" s="230"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A17" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="229"/>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A18" s="230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="231"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="234" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" s="233" t="s">
+        <v>735</v>
+      </c>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+    </row>
+    <row r="19" spans="1:9" ht="186.75" customHeight="1">
+      <c r="A19" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="233" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="233" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="231"/>
+    </row>
+    <row r="20" spans="1:9" s="238" customFormat="1" ht="85.8" customHeight="1">
+      <c r="A20" s="235" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237" t="s">
+        <v>737</v>
+      </c>
+      <c r="E20" s="237" t="s">
+        <v>738</v>
+      </c>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+    </row>
+    <row r="21" spans="1:9" s="238" customFormat="1" ht="85.8" customHeight="1">
+      <c r="A21" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="236"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237" t="s">
+        <v>739</v>
+      </c>
+      <c r="E21" s="237" t="s">
+        <v>740</v>
+      </c>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+    </row>
+    <row r="22" spans="1:9" s="238" customFormat="1" ht="133.19999999999999" customHeight="1">
+      <c r="A22" s="235" t="s">
+        <v>741</v>
+      </c>
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237" t="s">
+        <v>742</v>
+      </c>
+      <c r="E22" s="237" t="s">
+        <v>743</v>
+      </c>
+      <c r="F22" s="236"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="236"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A23" s="230"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A25" s="240" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A26" s="240" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4C00C3-3274-479F-98EA-92BC18989D4F}">
   <dimension ref="A1:GH36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25156,11 +25958,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -26814,12 +27616,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BF5FD6-35FA-4F37-A23F-F849E2BA0ADA}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4"/>
@@ -27278,12 +28080,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30109E4C-1898-4887-977E-F502F5099DD5}">
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28186,12 +28988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F76D645-4A30-4F72-B918-F94DADB8B6FC}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28666,12 +29468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156BA632-2B07-4783-AFEA-96C3EA722886}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29267,12 +30069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -29624,214 +30426,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2518BFF-C2EE-46DA-83D5-E91A3AD48E39}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="31.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="46.8">
-      <c r="A7" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" s="101" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="103" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-    </row>
-    <row r="9" spans="1:9" ht="171.6">
-      <c r="A9" s="104" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="187.2">
-      <c r="A10" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="105" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="218.4">
-      <c r="A11" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="156">
-      <c r="A12" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="202.8">
-      <c r="A13" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="124.8">
-      <c r="A14" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="D14" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="109.2">
-      <c r="A15" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="109.2">
-      <c r="A16" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>